--- a/doc/공유20220414.xlsx
+++ b/doc/공유20220414.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\git001\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jg_jeon\IdeaProjects\ToyProjectTest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75BE891-CFA1-4CD0-8C01-F53DB7B4E63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23874B60-82D6-40FA-932D-EAC27F5C038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14460" yWindow="5595" windowWidth="13470" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>test03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vvvv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -366,6 +370,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/공유20220414.xlsx
+++ b/doc/공유20220414.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jg_jeon\IdeaProjects\ToyProjectTest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23874B60-82D6-40FA-932D-EAC27F5C038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B5B5EE-C3FC-40A9-84C0-FEE56518701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14460" yWindow="5595" windowWidth="13470" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>test03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vvvv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -357,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -375,6 +379,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/공유20220414.xlsx
+++ b/doc/공유20220414.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jg_jeon\IdeaProjects\ToyProjectTest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B5B5EE-C3FC-40A9-84C0-FEE56518701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F99F1FD-C69C-4AA5-B94E-C737D9E3F029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14460" yWindow="5595" windowWidth="13470" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>test03</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>vvvv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -384,6 +388,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
